--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>X</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>A123+A12+A13+A23+A1+A2+A3+A0=1</t>
+  </si>
+  <si>
+    <t>ответ:         1</t>
+  </si>
+  <si>
+    <t>f (x,y,z)=a123xyz+a12xy+a13xz+a23YZ+a1x+a2y+a3z+a0</t>
+  </si>
+  <si>
+    <t>X-&gt;(Y-&gt;Z)V((X-&gt;Y)vZ)=1</t>
   </si>
 </sst>
 </file>
@@ -390,13 +399,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="36" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -423,6 +436,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -696,9 +712,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I11">
-        <v>1</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
